--- a/ValueSet-VS-Mikrobiologischer-Befund-MRE-Klasse.xlsx
+++ b/ValueSet-VS-Mikrobiologischer-Befund-MRE-Klasse.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-16T09:48:26+00:00</t>
+    <t>2022-06-16T13:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
